--- a/map/human/map.xlsx
+++ b/map/human/map.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="136">
   <si>
     <t>Test Datasets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,44 +369,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>human_Pancreas465_data.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Acinar cell</t>
   </si>
   <si>
-    <t>Fetal acinar cell</t>
-  </si>
-  <si>
-    <t>Mesenchymal cell</t>
-  </si>
-  <si>
-    <t>human_Pancreas958_data.csv</t>
-  </si>
-  <si>
-    <t>Acinar cell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>human_Pancreas20_data.csv</t>
-  </si>
-  <si>
-    <t>Mesenchyme cell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>human_Pancreas185_data.csv</t>
-  </si>
-  <si>
-    <t>human_Pancreas15_data.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>human_Pancreas11_data.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>human_Placenta615_data.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,6 +453,43 @@
   <si>
     <t>Pancreas</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>human_Pancreas2227_data</t>
+  </si>
+  <si>
+    <t>Alpha cell</t>
+  </si>
+  <si>
+    <t>Delta cell</t>
+  </si>
+  <si>
+    <t>Beta cell</t>
+  </si>
+  <si>
+    <t>Ductal cell</t>
+  </si>
+  <si>
+    <t>human_Pancreas1507_data</t>
+  </si>
+  <si>
+    <t>human_Pancreas180_data</t>
+  </si>
+  <si>
+    <t>human_Pancreas1841_data</t>
+  </si>
+  <si>
+    <t>human_Pancreas349_data</t>
+  </si>
+  <si>
+    <t>human_Pancreas51_data</t>
+  </si>
+  <si>
+    <t>Pancreas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pancreas exocrine cell</t>
   </si>
 </sst>
 </file>
@@ -887,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -904,10 +906,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2505,33 +2507,33 @@
         <v>10</v>
       </c>
       <c r="B95" s="2">
-        <v>465</v>
+        <v>2227</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2">
-        <v>465</v>
+        <v>2227</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E96" s="3" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2539,16 +2541,16 @@
         <v>10</v>
       </c>
       <c r="B97" s="2">
-        <v>958</v>
+        <v>2227</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2556,16 +2558,16 @@
         <v>10</v>
       </c>
       <c r="B98" s="2">
-        <v>20</v>
+        <v>2227</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2573,440 +2575,865 @@
         <v>10</v>
       </c>
       <c r="B99" s="2">
-        <v>20</v>
+        <v>2227</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="6">
-        <v>185</v>
+      <c r="B100" s="2">
+        <v>2227</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B101" s="6">
-        <v>15</v>
+        <v>1507</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
-        <v>10</v>
+      <c r="A102" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B102" s="6">
-        <v>11</v>
+        <v>1507</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" s="2">
-        <v>615</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="B103" s="6">
+        <v>1507</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" s="2">
-        <v>615</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="B104" s="6">
+        <v>180</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B105" s="2">
-        <v>18513</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="B105" s="6">
+        <v>180</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B106" s="2">
-        <v>18513</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
+      </c>
+      <c r="B106" s="6">
+        <v>180</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107" s="2">
-        <v>16286</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
+      </c>
+      <c r="B107" s="6">
+        <v>180</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B108" s="2">
-        <v>16286</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
+      </c>
+      <c r="B108" s="6">
+        <v>180</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B109" s="2">
-        <v>11081</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>120</v>
+      <c r="A109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="6">
+        <v>180</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110" s="2">
-        <v>14848</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="B110" s="6">
+        <v>1841</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111" s="2">
-        <v>14848</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="B111" s="6">
+        <v>1841</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B112" s="2">
-        <v>14848</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="B112" s="6">
+        <v>1841</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B113" s="2">
-        <v>14848</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="B113" s="6">
+        <v>1841</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B114" s="2">
-        <v>9887</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
+      </c>
+      <c r="B114" s="6">
+        <v>1841</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B115" s="2">
-        <v>9887</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>125</v>
+      <c r="A115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="6">
+        <v>1841</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B116" s="2">
-        <v>9887</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
+      </c>
+      <c r="B116" s="6">
+        <v>349</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B117" s="2">
-        <v>9887</v>
-      </c>
-      <c r="C117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="6">
+        <v>349</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E117" s="3" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B118" s="2">
-        <v>9887</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
+      </c>
+      <c r="B118" s="6">
+        <v>349</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" s="2">
-        <v>9887</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>125</v>
+      <c r="A119" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B119" s="6">
+        <v>349</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B120" s="2">
-        <v>9887</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
+      </c>
+      <c r="B120" s="6">
+        <v>349</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B121" s="2">
-        <v>9887</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
+      </c>
+      <c r="B121" s="6">
+        <v>349</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B122" s="2">
-        <v>9887</v>
-      </c>
-      <c r="C122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="6">
+        <v>51</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E122" s="3" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B123" s="2">
-        <v>9887</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>125</v>
+      <c r="A123" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" s="6">
+        <v>51</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="6">
+        <v>51</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="6">
+        <v>51</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" s="6">
+        <v>51</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="6">
+        <v>51</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="2">
+        <v>615</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="2">
+        <v>615</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B130" s="2">
+        <v>18513</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="2">
+        <v>18513</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="2">
+        <v>16286</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="2">
+        <v>16286</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="2">
+        <v>11081</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="2">
+        <v>14848</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="2">
+        <v>14848</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="2">
+        <v>14848</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="2">
+        <v>14848</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="2">
         <v>9887</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="2">
+        <v>9887</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="2">
+        <v>9887</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="2">
+        <v>9887</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="2">
+        <v>9887</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="2">
+        <v>9887</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="2">
+        <v>9887</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="2">
+        <v>9887</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="2">
+        <v>9887</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="2">
+        <v>9887</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="2">
+        <v>9887</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E149" s="3" t="s">
         <v>95</v>
       </c>
     </row>

--- a/map/human/map.xlsx
+++ b/map/human/map.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="138">
   <si>
     <t>Test Datasets</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +490,14 @@
   </si>
   <si>
     <t>Pancreas exocrine cell</t>
+  </si>
+  <si>
+    <t>Epithelial cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epithelial cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -889,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1637,19 +1645,19 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="2">
-        <v>540</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1660,13 +1668,13 @@
         <v>540</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1680,27 +1688,27 @@
         <v>59</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="2">
-        <v>5675</v>
+        <v>540</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1711,13 +1719,13 @@
         <v>5675</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1731,10 +1739,10 @@
         <v>63</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1748,10 +1756,10 @@
         <v>63</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1768,7 +1776,7 @@
         <v>35</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1785,7 +1793,7 @@
         <v>35</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1802,24 +1810,24 @@
         <v>35</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" s="2">
-        <v>3502</v>
+        <v>5675</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1830,13 +1838,13 @@
         <v>3502</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1853,7 +1861,7 @@
         <v>35</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1870,7 +1878,7 @@
         <v>35</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1884,10 +1892,10 @@
         <v>69</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1901,10 +1909,10 @@
         <v>69</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1918,10 +1926,10 @@
         <v>69</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1929,16 +1937,16 @@
         <v>8</v>
       </c>
       <c r="B61" s="2">
-        <v>298</v>
+        <v>3502</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1955,7 +1963,7 @@
         <v>37</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1972,7 +1980,7 @@
         <v>37</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -1989,7 +1997,7 @@
         <v>37</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2003,7 +2011,7 @@
         <v>72</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>67</v>
@@ -2014,16 +2022,16 @@
         <v>8</v>
       </c>
       <c r="B66" s="2">
-        <v>5105</v>
+        <v>298</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2037,10 +2045,10 @@
         <v>74</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2057,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2071,10 +2079,10 @@
         <v>74</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2091,7 +2099,7 @@
         <v>76</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2108,7 +2116,7 @@
         <v>76</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2125,7 +2133,7 @@
         <v>76</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2139,10 +2147,10 @@
         <v>74</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2159,7 +2167,7 @@
         <v>77</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2176,7 +2184,7 @@
         <v>77</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2190,10 +2198,10 @@
         <v>74</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2210,7 +2218,7 @@
         <v>37</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2227,7 +2235,7 @@
         <v>37</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2241,27 +2249,27 @@
         <v>74</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80" s="2">
-        <v>2064</v>
+        <v>5105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2269,16 +2277,16 @@
         <v>9</v>
       </c>
       <c r="B81" s="2">
-        <v>9566</v>
+        <v>2064</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2286,16 +2294,16 @@
         <v>9</v>
       </c>
       <c r="B82" s="2">
-        <v>6338</v>
+        <v>9566</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2309,10 +2317,10 @@
         <v>82</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2329,7 +2337,7 @@
         <v>85</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2346,7 +2354,7 @@
         <v>85</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2360,10 +2368,10 @@
         <v>82</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2380,7 +2388,7 @@
         <v>87</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2394,10 +2402,10 @@
         <v>82</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2414,7 +2422,7 @@
         <v>90</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2431,7 +2439,7 @@
         <v>90</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2448,7 +2456,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2462,10 +2470,10 @@
         <v>82</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2479,10 +2487,10 @@
         <v>82</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2496,32 +2504,32 @@
         <v>82</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B95" s="2">
-        <v>2227</v>
+        <v>6338</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="B96" s="2">
         <v>2227</v>
@@ -2530,15 +2538,15 @@
         <v>124</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2">
         <v>2227</v>
@@ -2550,7 +2558,7 @@
         <v>99</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2564,10 +2572,10 @@
         <v>124</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2581,49 +2589,49 @@
         <v>124</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B100" s="2">
         <v>2227</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2227</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="6">
-        <v>1507</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="B102" s="6">
         <v>1507</v>
@@ -2632,15 +2640,15 @@
         <v>129</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="B103" s="6">
         <v>1507</v>
@@ -2649,10 +2657,10 @@
         <v>129</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2660,21 +2668,21 @@
         <v>10</v>
       </c>
       <c r="B104" s="6">
-        <v>180</v>
+        <v>1507</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="B105" s="6">
         <v>180</v>
@@ -2683,15 +2691,15 @@
         <v>130</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="B106" s="6">
         <v>180</v>
@@ -2700,10 +2708,10 @@
         <v>130</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2717,10 +2725,10 @@
         <v>130</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2734,14 +2742,14 @@
         <v>130</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B109" s="6">
@@ -2754,29 +2762,29 @@
         <v>99</v>
       </c>
       <c r="E109" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="6">
+        <v>180</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110" s="6">
-        <v>1841</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="B111" s="6">
         <v>1841</v>
@@ -2785,15 +2793,15 @@
         <v>131</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="B112" s="6">
         <v>1841</v>
@@ -2802,10 +2810,10 @@
         <v>131</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2819,10 +2827,10 @@
         <v>131</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2839,11 +2847,11 @@
         <v>99</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B115" s="6">
@@ -2853,21 +2861,21 @@
         <v>131</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B116" s="6">
-        <v>349</v>
+        <v>1841</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>127</v>
@@ -2887,10 +2895,10 @@
         <v>132</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2904,15 +2912,15 @@
         <v>132</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
-        <v>134</v>
+      <c r="A119" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B119" s="6">
         <v>349</v>
@@ -2921,15 +2929,15 @@
         <v>132</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>10</v>
+      <c r="A120" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B120" s="6">
         <v>349</v>
@@ -2938,10 +2946,10 @@
         <v>132</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2958,7 +2966,7 @@
         <v>99</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2966,21 +2974,21 @@
         <v>10</v>
       </c>
       <c r="B122" s="6">
-        <v>51</v>
+        <v>349</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
-        <v>134</v>
+      <c r="A123" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B123" s="6">
         <v>51</v>
@@ -2989,15 +2997,15 @@
         <v>133</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>10</v>
+      <c r="A124" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B124" s="6">
         <v>51</v>
@@ -3006,10 +3014,10 @@
         <v>133</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3023,15 +3031,15 @@
         <v>133</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
-        <v>134</v>
+      <c r="A126" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B126" s="6">
         <v>51</v>
@@ -3040,15 +3048,15 @@
         <v>133</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>10</v>
+      <c r="A127" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B127" s="6">
         <v>51</v>
@@ -3060,24 +3068,24 @@
         <v>99</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B128" s="2">
-        <v>615</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>101</v>
+        <v>10</v>
+      </c>
+      <c r="B128" s="6">
+        <v>51</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3088,30 +3096,30 @@
         <v>615</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B130" s="2">
-        <v>18513</v>
+        <v>615</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3122,13 +3130,13 @@
         <v>18513</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3136,16 +3144,16 @@
         <v>12</v>
       </c>
       <c r="B132" s="2">
-        <v>16286</v>
+        <v>18513</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3162,7 +3170,7 @@
         <v>109</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3170,16 +3178,16 @@
         <v>12</v>
       </c>
       <c r="B134" s="2">
-        <v>11081</v>
+        <v>16286</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3187,13 +3195,13 @@
         <v>12</v>
       </c>
       <c r="B135" s="2">
-        <v>14848</v>
+        <v>11081</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>14</v>
@@ -3210,7 +3218,7 @@
         <v>112</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>14</v>
@@ -3227,7 +3235,7 @@
         <v>112</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>14</v>
@@ -3244,10 +3252,10 @@
         <v>112</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3255,16 +3263,16 @@
         <v>12</v>
       </c>
       <c r="B139" s="2">
-        <v>9887</v>
+        <v>14848</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3278,7 +3286,7 @@
         <v>115</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>14</v>
@@ -3295,7 +3303,7 @@
         <v>115</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>14</v>
@@ -3312,7 +3320,7 @@
         <v>115</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>14</v>
@@ -3329,10 +3337,10 @@
         <v>115</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3346,10 +3354,10 @@
         <v>115</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3363,10 +3371,10 @@
         <v>115</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3380,10 +3388,10 @@
         <v>115</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3400,7 +3408,7 @@
         <v>120</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3414,10 +3422,10 @@
         <v>115</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3431,9 +3439,26 @@
         <v>115</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="2">
+        <v>9887</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E150" s="3" t="s">
         <v>95</v>
       </c>
     </row>
